--- a/testcases/testresult.xlsx
+++ b/testcases/testresult.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>首页接口</t>
   </si>
@@ -23,6 +23,9 @@
   </si>
   <si>
     <t>商品行情列表</t>
+  </si>
+  <si>
+    <t>失败：商品行情详情查询异常</t>
   </si>
 </sst>
 </file>
@@ -373,7 +376,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
